--- a/data/p_r_rates/respo_schedule.xlsx
+++ b/data/p_r_rates/respo_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/p_r_rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F34B7-CCFE-AD45-9DA0-B544AF1A0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F21153-F2E9-9C41-BD03-8C855EF8DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="920" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
+    <workbookView xWindow="1100" yWindow="1000" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Load + Ramp</t>
   </si>
@@ -47,15 +47,9 @@
     <t xml:space="preserve">Sample </t>
   </si>
   <si>
-    <t>Measure Run 1 (4 h)</t>
-  </si>
-  <si>
     <t>Measure Run 6 (4h)</t>
   </si>
   <si>
-    <t>Measure Run 3 (4h)</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Measure Run 5 (4h)</t>
   </si>
   <si>
-    <t>Measure Run 2 (4h)</t>
-  </si>
-  <si>
     <t>27C</t>
   </si>
   <si>
@@ -114,6 +105,33 @@
   </si>
   <si>
     <t xml:space="preserve">11 - repeat with all </t>
+  </si>
+  <si>
+    <t>At Temp 8:30</t>
+  </si>
+  <si>
+    <t>Measure Run 1 (3.5 h) 12:00</t>
+  </si>
+  <si>
+    <t>Sample (4 h) 12:30</t>
+  </si>
+  <si>
+    <t>At Temp 11:00</t>
+  </si>
+  <si>
+    <t>Measure Run 2 (3.5 h) 14:30</t>
+  </si>
+  <si>
+    <t>Sample 15:00</t>
+  </si>
+  <si>
+    <t>At Temp 13:30</t>
+  </si>
+  <si>
+    <t>Measure Run 3 (3.5 h) 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 17:30 </t>
   </si>
 </sst>
 </file>
@@ -137,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,19 +508,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1FC616-4431-5F46-B60E-95589F590DDB}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="19.1640625" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
@@ -513,16 +537,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>27</v>
@@ -559,19 +583,12 @@
       <c r="E5" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="J5" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -589,14 +606,12 @@
       <c r="E6" s="4">
         <v>0.3125</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <v>0.3125</v>
       </c>
-      <c r="K6" s="5"/>
       <c r="L6" s="2" t="s">
         <v>1</v>
       </c>
@@ -617,11 +632,10 @@
       <c r="E7" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="J7" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -639,53 +653,37 @@
       <c r="E8" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="E9" s="4">
         <v>0.375</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
       <c r="J9" s="4">
         <v>0.375</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
       <c r="J10" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
       <c r="J11" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
       <c r="M11" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,15 +693,11 @@
         <v>0.4375</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="4">
         <v>0.4375</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
       <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
@@ -712,74 +706,62 @@
       <c r="E13" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="K14" s="5"/>
       <c r="L14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2" t="s">
-        <v>2</v>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J15" s="4">
         <v>0.5</v>
       </c>
-      <c r="K15" s="5"/>
       <c r="L15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4">
         <v>0.54166666666666696</v>
@@ -794,233 +776,172 @@
       <c r="K17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
         <v>0.5625</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>29</v>
+      </c>
       <c r="J18" s="4">
         <v>0.5625</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="J19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4">
         <v>0.60416666666666696</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>27</v>
+      </c>
       <c r="J20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="L20" s="5"/>
       <c r="M20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4">
         <v>0.625</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+        <v>28</v>
+      </c>
       <c r="J21" s="4">
         <v>0.625</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
       <c r="M21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4">
         <v>0.64583333333333404</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
       <c r="J22" s="4">
         <v>0.64583333333333404</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="H23" s="5"/>
       <c r="J23" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>0.6875</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
       <c r="J24" s="4">
         <v>0.6875</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
         <v>0.70833333333333404</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J25" s="4">
         <v>0.70833333333333404</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="4">
         <v>0.72916666666666696</v>
       </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>31</v>
+      </c>
       <c r="J26" s="4">
         <v>0.72916666666666696</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="4">
         <v>0.75</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="2"/>
       <c r="J27" s="4">
         <v>0.75</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
       <c r="J28" s="4">
         <v>0.77083333333333404</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="H29" s="5"/>
       <c r="J29" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="4">
         <v>0.8125</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="H30" s="5"/>
       <c r="J30" s="4">
         <v>0.8125</v>
       </c>
-      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/p_r_rates/respo_schedule.xlsx
+++ b/data/p_r_rates/respo_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/p_r_rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F21153-F2E9-9C41-BD03-8C855EF8DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7A77E-CE02-544C-AF22-8A786CB6ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1000" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
+    <workbookView xWindow="1800" yWindow="1340" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Load + Ramp</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t xml:space="preserve">Sample 17:30 </t>
+  </si>
+  <si>
+    <t>Prep chambers 11:30</t>
+  </si>
+  <si>
+    <t>Prep chambers 14:00</t>
+  </si>
+  <si>
+    <t>Prep chambers 16:30</t>
+  </si>
+  <si>
+    <t>Rearrange</t>
+  </si>
+  <si>
+    <t>Prep load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prep load </t>
   </si>
 </sst>
 </file>
@@ -510,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1FC616-4431-5F46-B60E-95589F590DDB}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +699,9 @@
       <c r="E11" s="4">
         <v>0.41666666666666702</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="4">
         <v>0.41666666666666702</v>
       </c>
@@ -692,8 +713,11 @@
       <c r="E12" s="4">
         <v>0.4375</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="J12" s="4">
         <v>0.4375</v>
@@ -706,7 +730,7 @@
       <c r="E13" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="4">
@@ -720,6 +744,9 @@
       <c r="E14" s="4">
         <v>0.47916666666666702</v>
       </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
       <c r="J14" s="4">
         <v>0.47916666666666702</v>
       </c>
@@ -734,7 +761,7 @@
       <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="4">
@@ -751,7 +778,10 @@
       <c r="E16" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="4">
@@ -766,10 +796,13 @@
       <c r="E17" s="4">
         <v>0.54166666666666696</v>
       </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="2"/>
       <c r="J17" s="4">
         <v>0.54166666666666696</v>
       </c>
@@ -801,6 +834,9 @@
       <c r="E19" s="4">
         <v>0.58333333333333304</v>
       </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
       <c r="J19" s="4">
         <v>0.58333333333333304</v>
       </c>
@@ -832,6 +868,9 @@
       <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
       <c r="J21" s="4">
         <v>0.625</v>
       </c>
@@ -869,6 +908,9 @@
       </c>
       <c r="E24" s="4">
         <v>0.6875</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
       </c>
       <c r="J24" s="4">
         <v>0.6875</v>

--- a/data/p_r_rates/respo_schedule.xlsx
+++ b/data/p_r_rates/respo_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/p_r_rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7A77E-CE02-544C-AF22-8A786CB6ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5B311-39AB-1D48-8331-249E96F8D1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1340" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
   </bookViews>
@@ -36,29 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Load + Ramp</t>
   </si>
   <si>
-    <t>At Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample </t>
-  </si>
-  <si>
-    <t>Measure Run 6 (4h)</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Measure Run 4 (4 h)</t>
-  </si>
-  <si>
-    <t>Measure Run 5 (4h)</t>
-  </si>
-  <si>
     <t>27C</t>
   </si>
   <si>
@@ -110,39 +92,15 @@
     <t>At Temp 8:30</t>
   </si>
   <si>
-    <t>Measure Run 1 (3.5 h) 12:00</t>
-  </si>
-  <si>
-    <t>Sample (4 h) 12:30</t>
-  </si>
-  <si>
     <t>At Temp 11:00</t>
   </si>
   <si>
-    <t>Measure Run 2 (3.5 h) 14:30</t>
-  </si>
-  <si>
-    <t>Sample 15:00</t>
-  </si>
-  <si>
     <t>At Temp 13:30</t>
   </si>
   <si>
-    <t>Measure Run 3 (3.5 h) 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 17:30 </t>
-  </si>
-  <si>
     <t>Prep chambers 11:30</t>
   </si>
   <si>
-    <t>Prep chambers 14:00</t>
-  </si>
-  <si>
-    <t>Prep chambers 16:30</t>
-  </si>
-  <si>
     <t>Rearrange</t>
   </si>
   <si>
@@ -150,6 +108,42 @@
   </si>
   <si>
     <t xml:space="preserve">Prep load </t>
+  </si>
+  <si>
+    <t>Measure Run 1 (4 h) 12:30</t>
+  </si>
+  <si>
+    <t>Prep chambers 14:30</t>
+  </si>
+  <si>
+    <t>Prep chambers 17:00</t>
+  </si>
+  <si>
+    <t>Measure Run 3 (4 h) 17:30</t>
+  </si>
+  <si>
+    <t>Measure Run 2 (4 h) 15:00</t>
+  </si>
+  <si>
+    <t>Sample (5 h) 15:30-16:00</t>
+  </si>
+  <si>
+    <t>Sample (5 h) 13:00-13:30</t>
+  </si>
+  <si>
+    <t>Sample (5 h) 18:00-18:30</t>
+  </si>
+  <si>
+    <t>Measure Run 4 (4 h) 12:30</t>
+  </si>
+  <si>
+    <t>Measure Run 5 (4 h) 15:00</t>
+  </si>
+  <si>
+    <t>Measure Run 6 (4 h) 17:30</t>
+  </si>
+  <si>
+    <t>Prep chambers 12:00</t>
   </si>
 </sst>
 </file>
@@ -526,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1FC616-4431-5F46-B60E-95589F590DDB}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,32 +533,31 @@
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
     <col min="8" max="8" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E1" s="3">
         <v>20231109</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>20231110</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>27</v>
@@ -575,17 +568,17 @@
       <c r="H4" s="3">
         <v>33</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>30</v>
       </c>
-      <c r="M4" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -601,14 +594,11 @@
       <c r="E5" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -627,14 +617,14 @@
       <c r="H6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.3125</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -651,11 +641,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -672,44 +665,50 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="E9" s="4">
         <v>0.375</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>0.39583333333333298</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E11" s="4">
         <v>0.41666666666666702</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="4">
         <v>0.4375</v>
       </c>
@@ -717,273 +716,294 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="4">
+        <v>21</v>
+      </c>
+      <c r="K12" s="4">
         <v>0.4375</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E13" s="4">
         <v>0.45833333333333298</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="4">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
         <v>0.45833333333333298</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>0.5</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="4">
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>0.5625</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="K18" s="4">
         <v>0.5625</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>0.625</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="4">
         <v>0.625</v>
       </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4">
         <v>0.64583333333333404</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="J22" s="4">
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="4">
         <v>0.64583333333333404</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="J23" s="4">
+      <c r="F23" s="5"/>
+      <c r="K23" s="4">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4">
         <v>0.70833333333333404</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="G25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="4">
         <v>0.70833333333333404</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="4">
         <v>0.72916666666666696</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="G26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4">
         <v>0.72916666666666696</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="4">
         <v>0.75</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="J27" s="4">
+      <c r="G27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="4">
         <v>0.75</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="J28" s="4">
+      <c r="G28" s="5"/>
+      <c r="K28" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="4">
         <v>0.8125</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
-      <c r="K31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/p_r_rates/respo_schedule.xlsx
+++ b/data/p_r_rates/respo_schedule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/p_r_rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5B311-39AB-1D48-8331-249E96F8D1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84ABFD8-E1DF-3249-BFF8-6A0A917D1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1340" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
+    <workbookView xWindow="1120" yWindow="4720" windowWidth="26700" windowHeight="16440" xr2:uid="{5729F46E-A762-7541-B285-883AEFE5FB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Load + Ramp</t>
   </si>
@@ -134,16 +134,28 @@
     <t>Sample (5 h) 18:00-18:30</t>
   </si>
   <si>
-    <t>Measure Run 4 (4 h) 12:30</t>
-  </si>
-  <si>
     <t>Measure Run 5 (4 h) 15:00</t>
   </si>
   <si>
-    <t>Measure Run 6 (4 h) 17:30</t>
-  </si>
-  <si>
-    <t>Prep chambers 12:00</t>
+    <t>At Temp 8:15</t>
+  </si>
+  <si>
+    <t>Prep chambers 11:45</t>
+  </si>
+  <si>
+    <t>Measure Run 4 (4 h) 12:15</t>
+  </si>
+  <si>
+    <t>At Temp 13:00</t>
+  </si>
+  <si>
+    <t>Prep chambers 16:30</t>
+  </si>
+  <si>
+    <t>Measure Run 6 (4 h) 17:00</t>
+  </si>
+  <si>
+    <t>Sample (5 h) 17:30-18:00</t>
   </si>
 </sst>
 </file>
@@ -167,18 +179,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -202,10 +208,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1FC616-4431-5F46-B60E-95589F590DDB}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,47 +545,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>20231109</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>20231110</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>33</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>33</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>27</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5">
@@ -591,15 +597,15 @@
       <c r="D5">
         <v>27</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>10</v>
       </c>
       <c r="B6">
@@ -611,21 +617,21 @@
       <c r="D6">
         <v>29</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.3125</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.3125</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>20</v>
       </c>
       <c r="B7">
@@ -637,19 +643,19 @@
       <c r="D7">
         <v>31</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="K7" s="4">
+      <c r="H7" s="4"/>
+      <c r="K7" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>30</v>
       </c>
       <c r="B8">
@@ -661,110 +667,116 @@
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>17</v>
+      <c r="N8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="E9" s="4">
+      <c r="A9" s="2"/>
+      <c r="E9" s="3">
         <v>0.375</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.4375</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.4375</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="N12" s="2" t="s">
+      <c r="L12" s="4"/>
+      <c r="N12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.47916666666666702</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.5</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="M15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -772,81 +784,76 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.52083333333333304</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.52083333333333304</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="M17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.5625</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="K18" s="4">
+      <c r="H18" s="4"/>
+      <c r="K18" s="3">
         <v>0.5625</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>0.58333333333333304</v>
       </c>
     </row>
@@ -854,56 +861,56 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.625</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.625</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>21</v>
+      <c r="L21" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.64583333333333404</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.64583333333333404</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -911,94 +918,94 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="K23" s="4">
+      <c r="F23" s="4"/>
+      <c r="K23" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.6875</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.6875</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>0.70833333333333404</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>0.70833333333333404</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>26</v>
+      <c r="M25" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>34</v>
+      <c r="M26" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.75</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>0.75</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.77083333333333404</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="K28" s="4">
+      <c r="G28" s="4"/>
+      <c r="K28" s="3">
         <v>0.77083333333333404</v>
       </c>
-      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0.79166666666666696</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>0.8125</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>0.8125</v>
       </c>
     </row>
